--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67164691-CF2D-4F65-BEEE-8F1AFBA1A502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C95899-E8A4-45A3-B51D-529B4382D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13245" yWindow="-20160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="348">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
   <si>
     <t>Флаги</t>
-  </si>
-  <si>
-    <t>regexp = new RegExp("шаблон", "флаги");</t>
   </si>
   <si>
     <t>regexp = /шаблон/; // без флагов
@@ -3544,66 +3541,6 @@
   <si>
     <t>Пример 1
 Дополнительная редактура новых значений</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Важно! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Если совпадений нет, то возвращается не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, а </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>пустой перебираемый объект.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4612,13 +4549,6 @@
     <t>\d - квантификаторы</t>
   </si>
   <si>
-    <t>\d{1} = \d
-\d{2}
-\d{2,4}
-\d{2,}
-\d{4}|\d{2}</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">\d Возвращает list список </t>
     </r>
@@ -5082,56 +5012,6 @@
     <t>\w - селекторы</t>
   </si>
   <si>
-    <r>
-      <t>\w Возвращает list список</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>букв и цифр</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (без пробелов и знаков) по </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>одному разряду</t>
-    </r>
-  </si>
-  <si>
     <t>pattern = re.compile(r'\w')
 result = pattern.findall(text)
 print(result)
@@ -5780,14 +5660,3295 @@
 #[('29', 'января', '2022'), ('2', 'февраля', '2022')]</t>
   </si>
   <si>
-    <t>Продолжить</t>
+    <t>Обратные символьные классы</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>\W</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Не цифра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: любой символ, кроме \d, например буква.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Не пробел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: любой символ, кроме \s, например буква.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Любой символ, кроме \w, то есть 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не английские буквы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">не знак подчёркивания 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не цифра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+В частности, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>русские буквы принадлежат этому классу.</t>
+    </r>
+  </si>
+  <si>
+    <t>let str = "+7(903)-123-45-67";
+str.replace(/\D/g, ""); // 79031234567</t>
+  </si>
+  <si>
+    <t>let str = "+7(903)-123-45-67";
+str.match(/\d/g).join(''); // 79031234567</t>
+  </si>
+  <si>
+    <t>Способ 1: Найти все цифры и соединить их.</t>
+  </si>
+  <si>
+    <t>Способ 2: Альтернативный, более короткий путь – найти нецифровые символы \D и удалить их из строки:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">любому символу, кроме новой строки
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно! Точка как буквально любой символ, с флагом «s»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+alert( "A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B".match(/A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">B/) ); // null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(нет совпадения)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+alert( "A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B".match(/A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) ); // A\nB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(совпадение!)</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-unicode</t>
+  </si>
+  <si>
+    <t>let str = "A ბ ㄱ";
+alert( str.match(/\p{L}/gu) ); // A,ბ,ㄱ
+alert( str.match(/\p{L}/g) ); // null (ничего не нашло, так как \p не работает без флага "u")</t>
+  </si>
+  <si>
+    <t>Буквы L</t>
+  </si>
+  <si>
+    <t>Числа N</t>
+  </si>
+  <si>
+    <t>Знаки пунктуации P</t>
+  </si>
+  <si>
+    <t>Отметки M (например, акценты)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">соединители Pc,
+тире Pd,
+открывающие кавычки Pi,
+закрывающие кавычки Pf,
+открывающие скобки Ps,
+закрывающие скобки Pe,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прочее Po</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">десятичная цифра Nd,
+цифры обозначаемые буквами (римские) Nl,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прочие No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">в нижнем регистре Ll,
+заглавные буквы Lt,
+в верхнем регистре Lu,
+модификаторы Lm,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прочие Lo</t>
+    </r>
+  </si>
+  <si>
+    <t>Символы S</t>
+  </si>
+  <si>
+    <t>Разделители Z</t>
+  </si>
+  <si>
+    <t>Прочие C</t>
+  </si>
+  <si>
+    <t>_ (символ подчёркивания)
+-
+"
+"
+(
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">саша
+Саша
+САША
+ʰʱʲʳʴʵʶʷʸ ᴦᴧ </t>
+  </si>
+  <si>
+    <t>0123456789
+I,II,III,IV,V,VI,VII,VIII,XIX,XX…</t>
+  </si>
+  <si>
+    <t>Конструкция</t>
+  </si>
+  <si>
+    <t>\p{L}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const regex = /\p{Mc}/gu;
+const thaiText = "ภาษาไทย"; // "Thai language"
+console.log([...thaiText.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт диакритические знаки в тайском тексте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const devanagariText = "हिन्दी"; // "Hindi"
+console.log([...devanagariText.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт диакритические знаки в деванагари</t>
+    </r>
+  </si>
+  <si>
+    <t>разделяющие комбинируемые знаки Mc,</t>
+  </si>
+  <si>
+    <t>окружающие комбинируемые знаки Me,</t>
+  </si>
+  <si>
+    <t>неразрывные комбинируемые знаки Mn.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Поиск неразрывных комбинируемых знаков
+const regex = /\p{Mn}/gu;
+// Текст с диакритиками
+const textWithAccents = "café naïve crème fiancée";
+const textWithApostrophes = "we̓ll don̓t";
+console.log([...textWithAccents.matchAll(regex)]);
+// Найдёт: ["́", "̈", "̀", "́"] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(акценты в словах)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log([...textWithApostrophes.matchAll(regex)]);
+// Найдёт: ["̓", "̓"] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(комбинируемые апострофы)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Поиск окружающих комбинируемых знаков
+const regex = /\p{Me}/gu;
+// Примеры с окружающими символами
+const textWithEnclosing = "A⃝ B⃞ C⃟ 1⃣ 2⃣";
+const musicalText = "𝅧𝅨𝅦";
+console.log([...textWithEnclosing.matchAll(regex)]);
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Найдёт: ["⃝", "⃞", "⃟", "⃣", "⃣"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log([...musicalText.matchAll(regex)]);
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Найдёт: ["𝅦", "𝅧", "𝅨"]</t>
+    </r>
+  </si>
+  <si>
+    <t>// Поиск символов валют
+const regex = /\p{Sc}/gu;
+// Текст с валютами
+const priceText = "Price: $100, €85, £75, ¥12000, ₹8000";
+const asianCurrencies = "฿500, ₩100000, ₪400";
+console.log([...priceText.matchAll(regex)]);
+// Найдёт: ["$", "€", "£", "¥", "₹"]
+console.log([...asianCurrencies.matchAll(regex)]);
+// Найдёт: ["฿", "₩", "₪"]</t>
+  </si>
+  <si>
+    <t>модификаторы Sk,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">валюты Sc,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прочие So.</t>
+    </r>
+  </si>
+  <si>
+    <t>// Поиск символов-модификаторов
+const regex = /\p{Sk}/gu;
+// Текст с модификаторами
+const phoneticText = "tʰ dʲ kʷ ɡʱ";
+const linguisticText = "aː eˑ o˞";
+console.log([...phoneticText.matchAll(regex)]);
+// Найдёт: ["ʰ", "ʲ", "ʷ", "ʱ"]
+console.log([...linguisticText.matchAll(regex)]);
+// Найдёт: ["ː", "ˑ", "˞"]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Поиск математических символов
+const regex = /\p{Sm}/gu;
+// Математические выражения
+const mathExpression = "∑(x² + y²) = ∫f(x)dx ± α × β";
+const logicExpression = "A ∧ B ⇒ C ∨ D";
+console.log([...mathExpression.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт: ["∑", "=", "∫", "±", "×"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log([...logicExpression.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт: ["∧", "⇒", "∨"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">математические Sm,
+function extractMathExpressions(text) {
+    const mathRegex = /[^\s\p{L}\p{N}]*\p{Sm}[^\s\p{L}\p{N}]*/gu;
+    return text.match(mathRegex) || [];
+}
+const scientificText = "Уравнение: E = mc², интеграл ∫f(x)dx, сумма ∑x";
+console.log(extractMathExpressions(scientificText));
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// ["E = mc²", "∫f(x)dx", "∑x"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Единственный символ в категории Zl
+2 Разделяет строки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>на логическом уровне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Не видим при обычном отображении
+4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Альтернатива CR/LF в некоторых системах</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Единственный символ в категории Zp
+2 Разделяет параграфы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>на логическом уровне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Более сильное разделение, чем разделитель строк Zl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Не видим при обычном отображении</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">пробел Zs
+// Поиск пробельных символов
+const regex = /\p{Zs}/gu;
+const textWithSpaces = "Hello World   "; // с разными пробелами
+console.log([...textWithSpaces.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт различные пробельные символы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">параграф Zp,
+// Поиск разделителя параграфов
+const regex = /\p{Zp}/gu;
+const textWithParagraphSeparator = "Первый параграф
+Второй параграф";
+console.log([...textWithParagraphSeparator.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт: ["
+"] (PARAGRAPH SEPARATOR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">линия Zl,
+// Поиск разделителя строк
+const regex = /\p{Zl}/gu;
+const textWithLineSeparator = "Первая строка_x000B_Вторая строка";
+console.log([...textWithLineSeparator.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// Найдёт: ["_x000B_"] (LINE SEPARATOR)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>различные типы пробелов и пробельных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> символов в Unicode.
+1 Обычный пробел (U+0020) - стандартный пробел
+2 Неразрывный пробел (U+00A0) - запрещает разрыв строки
+3 Тонкий пробел (U+2009) - очень узкий пробел
+4 Волосной пробел (U+200A) - самый узкий пробел
+5 Цифровой пробел (U+2007) - ширина как у цифр
+6 Идеографический пробел (U+3000) - для восточноазиатских языков</t>
+    </r>
+  </si>
+  <si>
+    <t>управляющие символы Cc,</t>
+  </si>
+  <si>
+    <t>форматирование Cf,</t>
+  </si>
+  <si>
+    <t>не назначенные Cn,</t>
+  </si>
+  <si>
+    <t>для приватного использования Co,</t>
+  </si>
+  <si>
+    <t>суррогаты Cs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Поиск управляющих символов
+const regex = /\p{Cc}/gu;
+const textWithControls = "Hello\x01World\x07\x0ATest";
+console.log([...textWithControls.matchAll(regex)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт: ["\x01", "\x07", "\x0A"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXTRA способ поиска!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Юникодные свойства \p{…}</t>
+    </r>
+  </si>
+  <si>
+    <t>Категории</t>
+  </si>
+  <si>
+    <t>Производные категории</t>
+  </si>
+  <si>
+    <t>Alphabetic</t>
+  </si>
+  <si>
+    <t>Hex_Digit</t>
+  </si>
+  <si>
+    <t>Что входит в Alphabetic:
+1 Все буквы из категорий: \p{L} (Lu, Ll, Lt, Lm, Lo)
+2 Буквенные цифры \p{Nl} (Number, Letter)
+3 Другие буквенные символы \p{Other_Alphabetic} (OAlpha)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Проверка на буквенные символы
+const regexAlpha = /\p{Alpha}/gu;
+const text = "Hello 世界 123 Ⅻ 🅰️";
+console.log([...text.matchAll(regexAlpha)]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Найдёт: ["H", "e", "l", "l", "o", "世", "界", "Ⅻ"]</t>
+    </r>
+  </si>
+  <si>
+    <t>Что входит в Hex_Digit:
+1 Цифры 0-9: 0-9
+2 Буквы A-F, a-f: A-Fa-f
+3 Полноширинные варианты: ０-９Ａ-Ｆａ-ｆ</t>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /x\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hex_Digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hex_Digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}/u;
+alert("число: xAF".match(regexp)); // xAF
+function isValidHexString(hexStr) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Удаляем префикс 0x если есть</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    const cleanHex = hexStr.replace(/^0x/i, '');
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Проверяем что все символы - hex digits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    return /^\p{Hex_Digit}+$/iu.test(cleanHex);
+}
+console.log(isValidHexString("1G3F"));    // false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function extractHexColors(text) {
+    const hexColorRegex = /#(\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hex_Digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{6}|\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hex_Digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{3})\b/giu;
+    const matches = [];
+    let match;
+    while ((match = hexColorRegex.exec(text)) !== null) {
+        matches.push(match[0]);
+    }
+    return matches;
+}
+const cssText = "colors: #FF0000, #0F0, #invalid, #ＡＢＣＤＥＦ";
+console.log(extractHexColors(cssText));
+// ["#FF0000", "#0F0", "#ＡＢＣＤＥＦ"]</t>
+    </r>
+  </si>
+  <si>
+    <t>Lowercase - строчные буквы</t>
+  </si>
+  <si>
+    <t>Uppercase - прописные буквы</t>
+  </si>
+  <si>
+    <t>White_Space - все пробельные символы</t>
+  </si>
+  <si>
+    <t>POSIX классы (также производные)</t>
+  </si>
+  <si>
+    <r>
+      <t>const lowerRegex = /\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/gu;
+console.log("Hello World".match(lowerRegex)); // ["e", "l", "l", "o", "o", "r", "l", "d"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const upperRegex = /\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/gu;
+console.log("Hello World".match(upperRegex)); // ["H", "W"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const wsRegex = /\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White_Space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/gu;
+console.log("Hello\tWorld\nEnd".match(wsRegex)); // ["\t", "\n"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>// Аналог [:alnum:]
+const alnumRegex = /[\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}\p{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}]/gu;
+console.log("Hello123 世界Ⅻ".match(alnumRegex));
+// ["H", "e", "l", "l", "o", "1", "2", "3", "世", "界", "Ⅻ"]</t>
+    </r>
+  </si>
+  <si>
+    <t>function analyzeTextComposition(text) {
+    return {
+        alphabetic: (text.match(/\p{Alpha}/gu) || []).length,
+        hexDigits: (text.match(/\p{Hex_Digit}/gu) || []).length,
+        lowercase: (text.match(/\p{Lower}/gu) || []).length,
+        uppercase: (text.match(/\p{Upper}/gu) || []).length,
+        whiteSpace: (text.match(/\p{White_Space}/gu) || []).length,
+        totalChars: text.length
+    };
+}
+const testText = "Hello 世界 123 ABC Ⅻ #FF00FF";
+console.log(analyzeTextComposition(testText));</t>
+  </si>
+  <si>
+    <t>Анализ состава текста:</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>White_Space - все типы пробелов, включая Unicode</t>
+  </si>
+  <si>
+    <t>Граница слов: \b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нужно найти конретное слово в строке, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>но это слово может быть окружено какими угодно символами</t>
+    </r>
+  </si>
+  <si>
+    <t>alert( "Hello, Java!".match(/\bHello\b/) ); // Hello
+alert( "Hello, Java!".match(/\bJava\b/) );  // Java
+alert( "Hello, Java!".match(/\bHell\b/) );  // null (нет совпадения)
+alert( "Hello, Java!".match(/\bJava!\b/) ); // null (нет совпадения)</t>
+  </si>
+  <si>
+    <t>Есть три вида позиций, которые являются границами слова:
+1 Начало текста, если его первый символ \w.
+2 Позиция внутри текста, если слева находится \w, а справа – не \w, или наоборот.
+3 Конец текста, если его последний символ \w.</t>
+  </si>
+  <si>
+    <t>Время имеет формат: часы:минуты. И часы, и минуты имеют две цифры, например, 09:00.
+Введите регулярное выражение, чтобы найти время в строке: Завтрак в 09:00 в комнате 123:456.
+P.S. В этой задаче пока нет необходимости проверять правильность времени, поэтому 25:99 также может быть верным результатом.
+P.P.S. Регулярное выражение не должно находить 123:456.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Работает только с английскими символами, так как \b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">regexp = new RegExp("шаблон", "флаги");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если используем "", то нужно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>экранировать \</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let regStr = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d";
+alert(regStr); // \d\.\d (теперь правильно)
+let regexp = new RegExp(regStr);
+alert( "Глава 5.1".match(regexp) ); // 5.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Наборы и диапазоны [...]</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-character-sets-and-ranges</t>
+  </si>
+  <si>
+    <t>[eao]</t>
+  </si>
+  <si>
+    <t>означает любой из 3-х символов: 'a', 'e' или 'o'</t>
+  </si>
+  <si>
+    <t>[a-z]</t>
+  </si>
+  <si>
+    <r>
+      <t>// найти [т или х], после которых идёт "оп"
+"Топ хоп".match(/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[тх]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>оп/gi); // "Топ", "хоп"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Exception 0xAF".match(/x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-9A-F][0-9A-F]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g) //xAF</t>
+    </r>
+  </si>
+  <si>
+    <t>\s – то же самое, что и [\t\n\v\f\r ], плюс несколько редких пробельных символов Юникода.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\w – то же самое, что и [a-zA-Z0-9_],
+многоязычный аналог \w - [\p{Alpha}\p{M}\p{Nd}\p{Pc}\p{Join_C}]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+В Javascript только!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1 английские буквы (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кириллица не будет распарсена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+2 цифра
+3 подчёркивание _</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Для поиска кириллицы:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[а-яА-ЯёЁ] - диапазон кириллических букв (включая ё/Ё).
+\p{L} - любой буквенный символ в мире (включая кириллицу и т.д.).
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\w Возвращает list список</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>букв и цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (без пробелов и знаков) по </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>одному разряду</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alphabetic (Alpha) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">– для букв,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark (M)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – для акцентов,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decimal_Number (Nd)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – для цифр,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Connector_Punctuation (Pc)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – для символа подчёркивания '_' и подобных ему,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Join_Control (Join_C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – два специальных кода 200c и 200d, используемые в лигатурах, например, арабских.</t>
+    </r>
+  </si>
+  <si>
+    <t>Исключающие диапазоны</t>
+  </si>
+  <si>
+    <t>[^aeyo]</t>
+  </si>
+  <si>
+    <t>[^0-9]</t>
+  </si>
+  <si>
+    <t>любой символ, за исключением цифры, то же, что и \D.</t>
+  </si>
+  <si>
+    <t>[^\s]</t>
+  </si>
+  <si>
+    <t>любой непробельный символ, то же, что и \S.</t>
+  </si>
+  <si>
+    <t>любой символ, за исключением 'a', 'e', 'y' или 'o'.</t>
+  </si>
+  <si>
+    <t>[^\s] – любой непробельный символ, то же, что и \S.</t>
+  </si>
+  <si>
+    <t>[^0-9] – любой символ, за исключением цифры, то же, что и \D</t>
+  </si>
+  <si>
+    <t>Экранирование в []</t>
+  </si>
+  <si>
+    <t>Символ каретки ^ нужно экранировать только в начале (где он означает исключение).</t>
+  </si>
+  <si>
+    <t>Закрывающую квадратную скобку ], если нужен именно такой символ, экранировать нужно.</t>
+  </si>
+  <si>
+    <t>суррогатные пары</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">alert( '𝒳'.match(/[𝒳𝒴]/) ); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// покажет странный символ, что-то типа [?]
+// (поиск был произведён неправильно, вернулась только половина символа)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>alert( '𝒳'.match(/[𝒳𝒴]/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ); // 𝒳</t>
+    </r>
+  </si>
+  <si>
+    <t>Если мы забудем флаг u, то можем нечаянно получить ошибку</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-character-sets-and-ranges#nabory-i-flag-u</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d – то же самое, что и [0-9],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\d{1} = \d
+\d{2}
+\d{2,4} - Диапазон: {2,4}, от 2 до 4
+\d{2,}
+\d{4}|\d{2}</t>
+    </r>
+  </si>
+  <si>
+    <t>Жадные и ленивые квантификаторы (когда используются не самые конкретные квантификаторы)</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-greedy-and-lazy</t>
+  </si>
+  <si>
+    <t>let regexp = /".+"/g;
+let str = 'a "witch" and her "broom" is one';
+str.match(regexp); // "witch" and her "broom"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ковычка тоже .+ поэтому регулярка найдет один большой кусок строки между всеми ковычками
+</t>
+  </si>
+  <si>
+    <t>«Ленивый» режим противоположен «жадному». Он означает: «повторять квантификатор наименьшее количество раз».
+Мы можем включить его, вставив знак вопроса '?' после квантификатора, то есть будет *? или +? или даже ?? для '?'.</t>
+  </si>
+  <si>
+    <t>let regexp = /".+?"/g;
+let str = 'a "witch" and her "broom" is one';
+str.match(regexp); // "witch","broom"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+А отсюда поиск продолжится по-другому. Из-за того, что у нас включён ленивый режим для +?, движок не будет пытаться найти совпадение для точки ещё раз, оно остановится и попробует найти совпадение для оставшегося шаблона '"' прямо сейчас:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Означает «ноль или более». То же самое, что и {0,}. То есть символ может повторяться много раз или вообще отсутствовать.
+Например, шаблон \d0* находит цифру и все нули за ней (их может быть много или ни одного)</t>
+    </r>
+  </si>
+  <si>
+    <t>Скобочные группы</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-groups</t>
+  </si>
+  <si>
+    <t>Без скобок шаблон go+ означает символ g и идущий после него символ o, который повторяется один или более раз. Например, goooo или gooooooooo.
+Скобки группируют символы вместе. Так что (go)+ означает go, gogo, gogogo и т.п.</t>
+  </si>
+  <si>
+    <t>Формат email: имя@домен. В качестве имени может быть любое слово, разрешены дефисы и точки. На языке регулярных выражений это [-.\w]+.</t>
+  </si>
+  <si>
+    <r>
+      <t>'Gogogo now!'.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ig); // "Gogogo"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\w+\.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)+\w+/g;
+"site.com my.site.com".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp); // site.com,my.site.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /[-.\w]+@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>([\w-]+\.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+[\w-]+/g;
+"my@mail.com @ his@site.com.uk".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp); // my@mail.com, his@site.com.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>let str = '&lt;h1&gt;Hello, world!&lt;/h1&gt;';
+let tag = str.match(/&lt;(.*?)&gt;/);
+tag[0]; // &lt;h1&gt;
+tag[1]; // h1</t>
+  </si>
+  <si>
+    <t>Метод str.match(regexp), если у регулярного выражения regexp нет флага g, ищет первое совпадение и возвращает его в виде массива:
+На позиции 0 будет всё совпадение целиком.
+На позиции 1 – содержимое первой скобочной группы.
+На позиции 2 – содержимое второй скобочной группы.
+…и так далее…</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = '&lt;span class="my"&gt;';
+let regexp = /&lt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>([a-z]+)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>([^&gt;]*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)&gt;/;
+let result = str.match(regexp);
+alert(result[0]); // &lt;span class="my"&gt;
+alert(result[1]); // span class="my"
+alert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); // span
+alert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); // class="my"</t>
+    </r>
+  </si>
+  <si>
+    <t>Рекурсивный поиск по полученному результату</t>
+  </si>
+  <si>
+    <t>Когда нужно упаковать искомое значение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Скобочные группы работают для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match без флага g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matchAll с флагом g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag1, tag2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] = '&lt;h1&gt; &lt;h2&gt;'.matchAll(/&lt;(.*?)&gt;/gi);</t>
+    </r>
+  </si>
+  <si>
+    <t>Именованные группы</t>
+  </si>
+  <si>
+    <t>Запоминать группы по номерам не очень удобно. Для простых шаблонов это допустимо, но в сложных регулярных выражениях считать скобки затруднительно. Гораздо лучше – давать скобкам имена.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Если совпадений нет, то возвращается не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пустой перебираемый объект.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Для удобство работы с результатом лучше применять имена скобочным группам (см Именованные группы)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let dateRegexp = /(?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;[0-9]{4})-(?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;[0-9]{2})-(?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;[0-9]{2})/;
+let str = "2019-04-30";
+let groups = str.match(dateRegexp).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+alert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.year); // 2019
+alert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.month); // 04
+alert(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.day); // 30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Если нет флага g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать match</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если есть флаг g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать matchAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let dateRegexp = /(?&lt;year&gt;[0-9]{4})-(?&lt;month&gt;[0-9]{2})-(?&lt;day&gt;[0-9]{2})/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+let str = "2019-10-30 2020-01-01";
+let results = str.matchAll(dateRegexp);
+for(let result of results) {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //проходимся по итератору</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  let {year, month, day} = result.groups;
+  alert(`${day}.${month}.${year}`);
+  // первый вывод: 30.10.2019
+  // второй: 01.01.2020
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Метод str.replace(regexp, replacement), осуществляющий замену совпадений с regexp в строке str, позволяет использовать в строке замены содержимое скобок. Это делается при помощи обозначений вида $n, где n – номер скобочной группы.</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "John Bull";
+let regexp = /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(\w+) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\w+)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/;
+alert( str.replace(regexp, '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') ); // Bull, John</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /(?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;year&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-9]{4})-(?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;month&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-9]{2})-(?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;day&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-9]{2})/g;
+let str = "2019-10-30, 2020-01-01";
+alert( str.replace(regexp, '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$&lt;day&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;month&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.$</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;year&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') );
+// 30.10.2019, 01.01.2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Именованная группа</t>
+  </si>
+  <si>
+    <t>Порядковые номера</t>
+  </si>
+  <si>
+    <t>Исключение из запоминания через ?:</t>
+  </si>
+  <si>
+    <t>Бывает так, что скобки нужны, чтобы квантификатор правильно применился, но мы не хотим, чтобы их содержимое было выделено в результате.</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gogogo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!";
+// ?: исключает go из запоминания
+let regexp = /(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?:go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\w+)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/i;
+let result = str.match(regexp);
+alert( result[0] ); // Gogogo John (полное совпадение)
+alert( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ); // John
+alert( result.length ); // 2 (больше в массиве элементов нет)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6014,8 +9175,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6076,6 +9245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6090,7 +9265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6114,16 +9289,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6141,7 +9313,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6156,7 +9328,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -6165,7 +9337,40 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6184,6 +9389,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1322070</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>202091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4168438</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>840172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F6B0DB-D689-4288-9138-B1AE5888EBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3789045" y="114644966"/>
+          <a:ext cx="2850178" cy="638081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2569845</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>590697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35AFB63-8E68-4710-9297-2B6276D0AED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="116166900"/>
+          <a:ext cx="2426970" cy="514497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6452,10 +9750,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6490,7 +9788,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6514,15 +9812,15 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
+      <c r="A3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="21" t="s">
-        <v>132</v>
+      <c r="C3" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
@@ -6540,18 +9838,18 @@
       <c r="U3" s="2"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="13" t="s">
-        <v>21</v>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -6570,15 +9868,15 @@
     <row r="5" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="13" t="s">
-        <v>22</v>
+      <c r="G5" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -6595,15 +9893,15 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6621,13 +9919,13 @@
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="1"/>
@@ -6648,13 +9946,13 @@
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
@@ -6678,13 +9976,13 @@
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -6707,13 +10005,13 @@
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
@@ -6736,13 +10034,13 @@
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -6765,13 +10063,13 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>130</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -6794,10 +10092,10 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
@@ -6841,11 +10139,11 @@
     <row r="15" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="21" t="s">
-        <v>31</v>
+      <c r="C15" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
@@ -6864,8 +10162,8 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>76</v>
+      <c r="A16" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
@@ -6889,11 +10187,11 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>72</v>
+      <c r="A17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
@@ -6917,11 +10215,11 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="12" t="s">
-        <v>32</v>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
@@ -6945,11 +10243,11 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="12" t="s">
-        <v>33</v>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
@@ -6973,11 +10271,11 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="12" t="s">
-        <v>34</v>
+      <c r="C20" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="7"/>
@@ -7001,11 +10299,11 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
+      <c r="C21" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
@@ -7028,14 +10326,14 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>68</v>
+      <c r="A22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="7"/>
@@ -7060,10 +10358,10 @@
     <row r="23" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="7"/>
@@ -7088,10 +10386,10 @@
     <row r="24" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7"/>
@@ -7116,10 +10414,10 @@
     <row r="25" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7"/>
@@ -7143,16 +10441,16 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -7174,11 +10472,11 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7202,11 +10500,11 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>89</v>
+      <c r="A28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="7"/>
@@ -7230,14 +10528,14 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="12" t="s">
-        <v>109</v>
+      <c r="B29" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -7259,10 +10557,10 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="7"/>
@@ -7285,14 +10583,14 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>89</v>
+      <c r="A31" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="7"/>
@@ -7315,14 +10613,14 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>111</v>
+      <c r="A32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="7"/>
@@ -7345,16 +10643,16 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>124</v>
+      <c r="A33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="7"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
@@ -7375,17 +10673,17 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
@@ -7407,10 +10705,10 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="12"/>
+      <c r="A35" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="11"/>
       <c r="D35" s="2"/>
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
@@ -7432,14 +10730,14 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>126</v>
+      <c r="A36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
@@ -7462,8 +10760,8 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>81</v>
+      <c r="A37" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7488,11 +10786,11 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="7"/>
@@ -7517,8 +10815,8 @@
     <row r="39" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
-        <v>83</v>
+      <c r="C39" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="7"/>
@@ -7541,105 +10839,105 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>74</v>
+      <c r="A40" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>67</v>
+      <c r="A41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>57</v>
+      <c r="D48" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
@@ -7659,13 +10957,13 @@
     </row>
     <row r="49" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="1"/>
@@ -7685,11 +10983,11 @@
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>107</v>
+      <c r="A50" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
@@ -7709,11 +11007,11 @@
     </row>
     <row r="51" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>93</v>
+      <c r="B51" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="1"/>
@@ -7734,13 +11032,13 @@
     </row>
     <row r="52" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="1"/>
@@ -7761,13 +11059,13 @@
     </row>
     <row r="53" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D53" s="2"/>
       <c r="F53" s="1"/>
@@ -7788,13 +11086,13 @@
     </row>
     <row r="54" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="12" t="s">
         <v>100</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="1"/>
@@ -7815,13 +11113,13 @@
     </row>
     <row r="55" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D55" s="2"/>
       <c r="F55" s="1"/>
@@ -7842,13 +11140,13 @@
     </row>
     <row r="56" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="1"/>
@@ -7868,11 +11166,11 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>121</v>
+      <c r="A57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -7893,14 +11191,14 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="1"/>
@@ -7922,10 +11220,10 @@
     <row r="59" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="1"/>
@@ -7945,8 +11243,8 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>123</v>
+      <c r="A60" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -7969,15 +11267,15 @@
     </row>
     <row r="61" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="D61" s="11"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
@@ -7995,11 +11293,11 @@
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>120</v>
+      <c r="A62" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -8023,11 +11321,11 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>85</v>
+      <c r="A63" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -8052,11 +11350,11 @@
     </row>
     <row r="64" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="12" t="s">
-        <v>119</v>
+      <c r="B64" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="7"/>
@@ -8100,11 +11398,11 @@
     <row r="66" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="21" t="s">
-        <v>134</v>
+      <c r="C66" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
@@ -8123,8 +11421,8 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>137</v>
+      <c r="A67" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8149,7 +11447,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="1"/>
@@ -8169,8 +11467,8 @@
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>138</v>
+      <c r="A69" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -8195,7 +11493,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D70" s="2"/>
       <c r="F70" s="1"/>
@@ -8215,8 +11513,8 @@
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>139</v>
+      <c r="A71" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -8241,7 +11539,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D72" s="2"/>
       <c r="F72" s="1"/>
@@ -8282,11 +11580,11 @@
     <row r="74" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="21" t="s">
-        <v>144</v>
+      <c r="C74" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
@@ -8305,53 +11603,53 @@
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C75" s="12" t="s">
-        <v>147</v>
+      <c r="C75" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="12"/>
+      <c r="A76" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="12" t="s">
         <v>146</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="80" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="C80" s="12" t="s">
-        <v>154</v>
+      <c r="C80" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>152</v>
+      <c r="A81" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
@@ -8374,195 +11672,950 @@
       <c r="U83" s="5"/>
     </row>
     <row r="84" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B84" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="B85" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="B89" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>290</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="C98" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="23" t="s">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="2" t="s">
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C101" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26" t="s">
+      <c r="B102" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>204</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A109" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="C110" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A111" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="26"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A112" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C132" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C133" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C134" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B138" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A145" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B146" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B148" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A149" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B150" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B153" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A155" s="3"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="U155" s="5"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A157" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A158" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C159" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A160" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="C161" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A162" s="3"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="U162" s="5"/>
+    </row>
+    <row r="163" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A164" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C165" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C166" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A167" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="26"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C168" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C174" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C175" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A176" s="3"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="U176" s="5"/>
+    </row>
+    <row r="177" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B179" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C180" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B181" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A182" s="3"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="U182" s="5"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A184" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="26"/>
+    </row>
+    <row r="185" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C185" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C186" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C187" s="26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B188" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A189" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A192" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C193" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" s="26"/>
+    </row>
+    <row r="195" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B195" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+    </row>
+    <row r="197" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B197" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C199" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B200" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B201" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C203" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="C204" s="26" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C95899-E8A4-45A3-B51D-529B4382D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E699E02A-8CFE-4BA8-B192-B58BB1FE15A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13245" yWindow="-20160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="408">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
@@ -3713,12 +3713,6 @@
     </r>
   </si>
   <si>
-    <t>let str = 'Hello, world!';
-let regexp = /\w+/y;
-regexp.lastIndex = 5; // ищем ровно на 5-й позиции
-alert( regexp.exec(str) ); // null</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4088,206 +4082,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Если есть g
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Действует по принципу Итератора.
-Проблема в том, что result не хранит весь массив найденных значений
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Опасно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Если мы применяем </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>одно и то же регулярное выражение</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> последовательно к </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>разным строкам</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, это может привести к </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>неверному результат</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">у, поскольку вызов regexp.test обновляет свойство regexp.lastIndex, поэтому поиск в новой строке может начаться с ненулевой позиции.
-let regexp = /javascript/g;  // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(regexp только что создан: regexp.lastIndex=0)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">regexp.test("javascript"); // true </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(теперь regexp.lastIndex=10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regexp.test("javascript"); // false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Если есть g</t>
     </r>
     <r>
@@ -4331,10 +4125,6 @@
     <t>`https://learn.javascript.ru/regexp-anchors</t>
   </si>
   <si>
-    <t>let str1 = "Mary had a little lamb";
-alert( /^Mary/.test(str1) ); // true</t>
-  </si>
-  <si>
     <t>startsWith</t>
   </si>
   <si>
@@ -4342,10 +4132,6 @@
   </si>
   <si>
     <t>startsWith and endsWith</t>
-  </si>
-  <si>
-    <t>let str1 = "it's fleece was white as snow";
-alert( /snow$/.test(str1) ); // true</t>
   </si>
   <si>
     <t>let goodInput = "12:34";
@@ -4836,9 +4622,6 @@
   </si>
   <si>
     <t>\d? - квантификаторы</t>
-  </si>
-  <si>
-    <t>\d{,1} = \d?</t>
   </si>
   <si>
     <r>
@@ -8943,17 +8726,1947 @@
 alert( result.length ); // 2 (больше в массиве элементов нет)</t>
     </r>
   </si>
+  <si>
+    <t>Обратная ссылка по номеру: \N</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = `He said: "She's the one!".`;
+let regexp = /(['"])(.*?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/g;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alert( str.match(regexp) ); // "She's the one!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let str = `He said: "She's the one!".`;
+let regexp = /['"](.*?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/g;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Результат - не тот, который хотелось бы
+alert( str.match(regexp) ); // "She'</t>
+    </r>
+  </si>
+  <si>
+    <t>Далее в шаблоне \1 означает «найти то же самое, что в первой скобочной группе», а именно – аналогичную кавычку в нашем случае.
+Аналогично, \2 означает содержимое второй скобочной группы, 
+\3 – третьей, и так далее.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Как видно, шаблон нашёл открывающую кавычку ", а после нашёл текст вплоть до следующей кавычки ', после чего поиск завершился.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Движок регулярных выражений находит первую кавычку из шаблона (['"]) и запоминает её содержимое.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если есть флаг g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать matchAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если нет флага g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать match</t>
+    </r>
+  </si>
+  <si>
+    <t>Если в регулярном выражении много скобочных групп, то удобно давать им имена.</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = `He said: "She's the one!".`;
+let regexp = /(?&lt;quote&gt;['"])(.*?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\k&lt;quote&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g;
+alert( str.match(regexp) ); // "She's the one!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /\[(b|url|quote)].*?\[\/\1]/g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let str = `
+  [b]привет![/b]
+  [quote]
+    [url]http://ya.ru[/url]
+  [/quote]
+`;
+alert( str.match(regexp) ); // [b]привет![/b],[quote][url]http://ya.ru[/url][/quote]</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-alternation</t>
+  </si>
+  <si>
+    <t>Альтернация (или) |</t>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java(script)?/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gi;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let str = "Сначала появился язык Java, затем HTML, потом JavaScript";
+str.match(regexp); // Java,HTML,JavaScript</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 gr(a|e)y означает точно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>то же, что и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gr[ae]y.
+2 gra|ey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>означает</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gra или ey.
+3 Люблю HTML|CSS найдёт </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Люблю HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> или </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4 Люблю (HTML|CSS) найдёт </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Люблю HTML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Люблю CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>let regexp = /([01]\d|2[0-3]):[0-5]\d/g;
+alert("00:00 10:10 23:59 25:99 1:2".match(regexp)); // 00:00,10:10,23:59</t>
+  </si>
+  <si>
+    <t>Разные варианты регулярок вмето |</t>
+  </si>
+  <si>
+    <t>Опережающие и ретроспективные проверки</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-lookahead-lookbehind</t>
+  </si>
+  <si>
+    <t>В качестве первого примера найдём стоимость из строки 1 индейка стоит 30€. То есть, найдём число, после которого есть знак валюты €.</t>
+  </si>
+  <si>
+    <t>Синтаксис опережающей проверки</t>
+  </si>
+  <si>
+    <t>Синтаксис сложной опережающей проверки</t>
+  </si>
+  <si>
+    <t>Например, \d+(?=\s)(?=.*30) ищет \d+ при условии, что за ним идёт пробел, и где-то впереди есть 30</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "1 индейка стоит 30€";
+str.match(/\d+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?=€)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/); // 30, число 1 проигнорировано, так как за ним НЕ следует €</t>
+    </r>
+  </si>
+  <si>
+    <t>Негативная опережающая проверка</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-lookahead-lookbehind#negativnaya-operezhayuschaya-proverka</t>
+  </si>
+  <si>
+    <t>X(?!Y)</t>
+  </si>
+  <si>
+    <t>X(?=Y)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>найди X при условии, что за ним следует Y. Вместо X и Y здесь может быть любой шаблон.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Найти X.
+Проверить, идёт ли Y сразу после X (если нет – не подходит).
+Проверить, идёт ли Z сразу после X (если нет – не подходит).
+Если обе проверки прошли – совпадение найдено.</t>
+    </r>
+  </si>
+  <si>
+    <t>X(?=Y)(?=Z)</t>
+  </si>
+  <si>
+    <t>Ретроспективная проверка</t>
+  </si>
+  <si>
+    <t>`https://learn.javascript.ru/regexp-lookahead-lookbehind#retrospektivnaya-proverka</t>
+  </si>
+  <si>
+    <t>Обратите внимание: Lookbehind не поддерживается в браузерах построенных не на движке V8, таких как Safari и Internet Explorer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> найди такой X, за которым НЕ следует Y.</t>
+    </r>
+  </si>
+  <si>
+    <t>let str = "2 индейки стоят 60€";
+str.match(/\d+(?!€)/); // 2 (в этот раз проигнорирована цена)</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "1 индейка стоит 30€";
+str.match(/\d+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?=\s)(?=.*30)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/); // 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Если нам необходимо найти количество индеек – число, перед которым не идёт $, мы можем использовать негативную ретроспективную проверку (?&lt;!\$)\d+:</t>
+  </si>
+  <si>
+    <t>Знак доллара обычно ставится перед суммой денег, поэтому для того чтобы найти $30, мы используем (?&lt;=\$)\d+ – число, перед которым идёт $:</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "1 индейка стоит $30";
+// знак доллара экранируем \$, так как это специальный символ
+str.match(/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?&lt;=\$)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d+/); // 30, одинокое число игнорируется</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let str = "2 индейки стоят $60";
+str.match(/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?&lt;!\$)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d+/); // 2 (проигнорировалась цена)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Позитивная ретроспективная проверка: (?&lt;=Y)X, ищет совпадение с X при условии, что перед ним ЕСТЬ Y.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Негативная ретроспективная проверка: (?&lt;!Y)X, ищет совпадение с X при условии, что перед ним НЕТ Y.</t>
+    </r>
+  </si>
+  <si>
+    <t>(?&lt;!Y)X</t>
+  </si>
+  <si>
+    <t>(?&lt;=Y)X</t>
+  </si>
+  <si>
+    <t>Добавление значений из условий</t>
+  </si>
+  <si>
+    <t>В некоторых ситуациях нам может быть интересно захватить и то, что в проверке. Для этого нужно обернуть это в дополнительные скобки.</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = "1 индейка стоит $30";
+let regexp = /(?&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\$|£)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)\d+/;
+str.match(regexp); // 30, $</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let str = "1 индейка стоит 30€";
+let regexp = /\d+(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(€|kr)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/; // добавлены дополнительные скобки вокруг €|kr
+str.match(regexp); // 30, €</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(?=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(€|kr)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(?&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\$|£)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Опережающая проверка</t>
+  </si>
+  <si>
+    <r>
+      <t>let str1 = "Mary had a little lamb";
+alert( /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mary/.test(str1) ); // true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let str1 = "it's fleece was white as snow";
+alert( /snow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/.test(str1) ); // true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/snow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mary/</t>
+    </r>
+  </si>
+  <si>
+    <t>/^\d\d:\d\d$/;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">\d{,1} = \d?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Означает «ноль или один». То же самое, что и {0,1}. По сути, делает символ необязательным.
+Например, шаблон ou?r найдёт o после которого, возможно, следует u, а затем r.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">parse Value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on the nth position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from String
+get Quantity of searched Valueson </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the nth position</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+get Indeces of search Values </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on the nth position </t>
+    </r>
+  </si>
+  <si>
+    <t>Если есть y</t>
+  </si>
+  <si>
+    <r>
+      <t>let str = 'let varName = "value"';
+let regexp = /\w+/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp.lastIndex = 3;
+alert( regexp.exec(str) ); // null (на позиции 3 пробел, а не слово)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp.lastIndex = 4;
+alert( regexp.exec(str) ); // varName (слово на позиции 4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если есть y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Действует по принципу Итератора.
+Проблема в том, что result не хранит весь массив найденных значений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Опасно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Если мы применяем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>одно и то же регулярное выражение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> последовательно к </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разным строкам</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, это может привести к </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>неверному результат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">у, поскольку вызов regexp.test обновляет свойство regexp.lastIndex, поэтому поиск в новой строке может начаться с ненулевой позиции.
+let regexp = /javascript/g;  // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp только что создан: regexp.lastIndex=0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">regexp.test("javascript"); // true </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(теперь regexp.lastIndex=10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp.test("javascript"); // false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если есть g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Действует по принципу Итератора.
+Проблема в том, что result не хранит весь массив найденных значений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Опасно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Если мы применяем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>одно и то же регулярное выражение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> последовательно к </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разным строкам</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, это может привести к </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>неверному результат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">у, поскольку вызов regexp.test обновляет свойство regexp.lastIndex, поэтому поиск в новой строке может начаться с ненулевой позиции.
+let regexp = /javascript/g;  // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp только что создан: regexp.lastIndex=0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">regexp.test("javascript"); // true </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(теперь regexp.lastIndex=10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp.test("javascript"); // false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let str = 'Hello, world!';
+let regexp = /\w+/y;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp.lastIndex = 5; // ищем ровно на 5-й позиции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+alert( regexp.exec(str) ); // null</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9183,6 +10896,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -9263,9 +11004,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9276,13 +11017,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9295,13 +11036,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -9313,13 +11054,13 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9328,7 +11069,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9337,7 +11078,40 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9346,31 +11120,19 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9397,13 +11159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1322070</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>202091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4168438</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:colOff>4172248</xdr:colOff>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>840172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9441,14 +11203,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2569845</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>590697</xdr:rowOff>
+      <xdr:colOff>2573655</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>586887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9750,10 +11512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9788,7 +11550,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9817,7 +11579,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -9844,7 +11606,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="1"/>
@@ -10003,9 +11765,12 @@
       <c r="U9" s="2"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>354</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>29</v>
@@ -10037,10 +11802,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -10066,10 +11831,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -10143,7 +11908,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
@@ -10327,7 +12092,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>88</v>
@@ -10501,7 +12266,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>88</v>
@@ -10529,7 +12294,7 @@
     <row r="29" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="26" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>79</v>
@@ -10584,7 +12349,7 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>88</v>
@@ -10647,7 +12412,7 @@
         <v>111</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>112</v>
@@ -10677,7 +12442,7 @@
         <v>111</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>115</v>
@@ -10706,9 +12471,11 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
@@ -10730,14 +12497,11 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>124</v>
+      <c r="B36" s="37" t="s">
+        <v>406</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>407</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
@@ -10759,12 +12523,13 @@
       <c r="U36" s="2"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>403</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="7"/>
       <c r="F37" s="1"/>
@@ -10785,12 +12550,12 @@
       <c r="U37" s="2"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>87</v>
+    <row r="38" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B38" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="7"/>
@@ -10812,12 +12577,10 @@
       <c r="U38" s="2"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="14" t="s">
-        <v>82</v>
-      </c>
+    <row r="39" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="7"/>
       <c r="F39" s="1"/>
@@ -10838,182 +12601,186 @@
       <c r="U39" s="2"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B44" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="51" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
@@ -11030,15 +12797,15 @@
       <c r="U51" s="2"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="1"/>
@@ -11057,16 +12824,12 @@
       <c r="U52" s="2"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>93</v>
-      </c>
+    <row r="53" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
@@ -11084,15 +12847,13 @@
       <c r="U53" s="2"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>100</v>
+    <row r="54" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="1"/>
@@ -11111,15 +12872,15 @@
       <c r="U54" s="2"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D55" s="2"/>
       <c r="F55" s="1"/>
@@ -11138,15 +12899,15 @@
       <c r="U55" s="2"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="1"/>
@@ -11165,14 +12926,16 @@
       <c r="U56" s="2"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="2"/>
+    <row r="57" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
@@ -11190,15 +12953,15 @@
       <c r="U57" s="2"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>90</v>
+    <row r="58" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="1"/>
@@ -11217,13 +12980,15 @@
       <c r="U58" s="2"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="1"/>
@@ -11242,11 +13007,13 @@
       <c r="U59" s="2"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="2"/>
+    <row r="60" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="F60" s="1"/>
@@ -11265,17 +13032,17 @@
       <c r="U60" s="2"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>122</v>
+    <row r="61" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
@@ -11292,26 +13059,23 @@
       <c r="U61" s="2"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="2"/>
+    <row r="62" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="7"/>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="7"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="7"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -11320,26 +13084,21 @@
       <c r="U62" s="2"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>84</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="7"/>
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="7"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="7"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -11348,26 +13107,25 @@
       <c r="U63" s="2"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B64" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="D64" s="11"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="7"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="7"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -11376,42 +13134,54 @@
       <c r="U64" s="2"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="U65" s="5"/>
-    </row>
-    <row r="66" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>133</v>
-      </c>
+    <row r="65" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
+      <c r="O66" s="7"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -11420,21 +13190,26 @@
       <c r="U66" s="2"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+    <row r="67" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D67" s="2"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -11443,36 +13218,34 @@
       <c r="U67" s="2"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="1"/>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="U68" s="5"/>
     </row>
     <row r="69" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="1"/>
@@ -11489,12 +13262,12 @@
       <c r="U69" s="2"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
@@ -11512,12 +13285,14 @@
       <c r="U70" s="2"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+    <row r="71" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
@@ -11535,12 +13310,12 @@
       <c r="U71" s="2"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
@@ -11558,34 +13333,38 @@
       <c r="U72" s="2"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="U73" s="5"/>
-    </row>
-    <row r="74" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
+    <row r="73" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
@@ -11602,450 +13381,498 @@
       <c r="U74" s="2"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C75" s="11" t="s">
-        <v>145</v>
-      </c>
+    <row r="75" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="11"/>
-    </row>
-    <row r="77" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C78" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="C83" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="C80" s="11" t="s">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
+    <row r="88" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="U83" s="5"/>
-    </row>
-    <row r="84" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B84" s="1"/>
-      <c r="C84" s="20" t="s">
+      <c r="D88" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="26" t="s">
+    </row>
+    <row r="89" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D85" s="2" t="s">
+    </row>
+    <row r="90" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B90" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="2" t="s">
+    </row>
+    <row r="91" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B91" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="2" t="s">
+    </row>
+    <row r="92" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="B92" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="94" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B94" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="2" t="s">
+    </row>
+    <row r="95" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="B95" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" s="2" t="s">
+    </row>
+    <row r="96" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="2" t="s">
+    </row>
+    <row r="97" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="2" t="s">
+    </row>
+    <row r="98" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C99" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
+      <c r="C100" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D103" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C104" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="2" t="s">
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="A100" s="23" t="s">
+      <c r="B105" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25" t="s">
+      <c r="B106" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C101" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="C107" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" s="26" t="s">
+    </row>
+    <row r="108" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B108" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="C108" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B105" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B106" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="26" t="s">
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="U110" s="5"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="U107" s="5"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-      <c r="C108" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="C110" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C111" s="26"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="C113" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="26"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B113" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B115" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="26" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
+      <c r="C120" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B117" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B119" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B120" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B121" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -12053,567 +13880,871 @@
         <v>235</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C132" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C136" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C137" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B129" s="2" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C138" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B131" s="2" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C132" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C133" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C134" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C135" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="29" t="s">
+    </row>
+    <row r="143" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B143" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="26" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B138" s="2" t="s">
+      <c r="D143" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B140" s="2" t="s">
+    </row>
+    <row r="147" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B147" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="151" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A152" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B144" s="2" t="s">
+      <c r="C153" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B156" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A158" s="3"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="U158" s="5"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A160" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A161" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B146" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C146" s="26" t="s">
+    <row r="162" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C162" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A163" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="C164" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B148" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B150" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B152" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B153" s="34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="U155" s="5"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B156" s="1"/>
-      <c r="C156" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A157" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C157" s="26" t="s">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A165" s="3"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="U165" s="5"/>
+    </row>
+    <row r="166" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D166" s="26" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A158" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C159" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A160" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="C161" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="U162" s="5"/>
-    </row>
-    <row r="163" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B163" s="1"/>
-      <c r="C163" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A164" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C165" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C166" s="26" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C167" s="26"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C168" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C169" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A170" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C170" s="26"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C171" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A172" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="21" t="s">
+      <c r="C173" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C175" s="26" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C170" s="26" t="s">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A176" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C177" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C178" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C171" s="26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A173" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C174" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C175" s="26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="U176" s="5"/>
-    </row>
-    <row r="177" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B177" s="1"/>
-      <c r="C177" s="30" t="s">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="U179" s="5"/>
+    </row>
+    <row r="180" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B182" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C183" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B184" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C184" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D177" s="26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B179" s="2" t="s">
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="U185" s="5"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C179" s="26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C180" s="26" t="s">
+      <c r="D186" s="26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B181" s="2" t="s">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A187" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="26"/>
+    </row>
+    <row r="188" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C188" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C189" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C190" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B191" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C181" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="U182" s="5"/>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B183" s="1"/>
-      <c r="C183" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D183" s="26" t="s">
+      <c r="C191" s="26" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A184" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="26"/>
-    </row>
-    <row r="185" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C185" s="26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C186" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C187" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B188" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A189" s="21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="26" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C193" s="26" t="s">
+      <c r="B194" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C196" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" s="26"/>
+    </row>
+    <row r="198" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B198" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B199" s="37"/>
+      <c r="C199" s="26"/>
+    </row>
+    <row r="200" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B200" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C200" s="26" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C194" s="26"/>
-    </row>
-    <row r="195" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B195" s="26" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B202" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B203" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B204" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C204" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C195" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-    </row>
-    <row r="197" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B197" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="C197" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C199" s="26" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B200" s="2" t="s">
+    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C206" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="C207" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B209" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="C200" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B201" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C201" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C203" s="26" t="s">
+      <c r="D210" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="C204" s="26" t="s">
-        <v>347</v>
+    <row r="211" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B211" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A212" s="3"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="U212" s="5"/>
+    </row>
+    <row r="213" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A214" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A216" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C216" s="37"/>
+    </row>
+    <row r="217" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C217" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A218" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C219" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A220" s="3"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="U220" s="5"/>
+    </row>
+    <row r="221" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B221" s="1"/>
+      <c r="C221" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A222" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C223" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A224" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C225" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C226" s="37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B228" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C228" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C230" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C231" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D232" s="37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C233" s="40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C234" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B236" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C236" s="37"/>
+      <c r="D236" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B237" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B238" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C238" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C239" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B240" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C240" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C242" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B243" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B245" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E699E02A-8CFE-4BA8-B192-B58BB1FE15A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3D7F6-8624-41FE-B3C2-334CC7A48047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="-20160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regexp" sheetId="20" r:id="rId1"/>
+    <sheet name="Шаблоны" sheetId="21" r:id="rId2"/>
+    <sheet name="Методы" sheetId="22" r:id="rId3"/>
+    <sheet name="Символьные классы" sheetId="24" r:id="rId4"/>
+    <sheet name="EXTRA способ поиска" sheetId="23" r:id="rId5"/>
+    <sheet name="Скобочные группы" sheetId="25" r:id="rId6"/>
+    <sheet name="Опережающие и ретроспективные" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="408">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
@@ -10653,12 +10659,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11004,9 +11018,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11017,13 +11031,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11036,13 +11050,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -11054,13 +11068,13 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11069,7 +11083,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11078,7 +11092,40 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11087,52 +11134,22 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11235,6 +11252,99 @@
         <a:xfrm>
           <a:off x="2609850" y="116166900"/>
           <a:ext cx="2426970" cy="514497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1322070</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>202091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4172248</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>840172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFED8656-A6C7-489A-8582-4334F40383EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="120135176"/>
+          <a:ext cx="2848273" cy="634271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2573655</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>586887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3608742-20AF-4C2A-9275-2AD641763515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607945" y="121653300"/>
+          <a:ext cx="2428875" cy="514497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11514,7 +11624,7 @@
   </sheetPr>
   <dimension ref="A1:V245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -14744,9 +14854,5194 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93816D-CDBD-4DE7-B2AE-E6C809971A56}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75695FB-ABAC-40E6-9234-525A8A94A5C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V54"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B23" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC7E189-27EF-493F-92CB-D6827B46961D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="C16" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8423127D-9E7A-4801-8C99-1C6002FCB455}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="26"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F50C626-8220-44B6-A5D1-6974942320FB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C26" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="37"/>
+    </row>
+    <row r="53" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C55" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB47CB9E-CC27-42C2-9330-ECA706C89AC8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3D7F6-8624-41FE-B3C2-334CC7A48047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B927ABA-4946-46D3-AAA9-844261CB42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regexp" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="413">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
@@ -8932,238 +8932,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Не перепутайте: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в шаблоне \1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>при замене $1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">\
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Если есть флаг g, то </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>нужно</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> использовать matchAll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Не перепутайте: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в шаблоне \1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>при замене $1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">\
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Если нет флага g, то </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>нужно</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> использовать match</t>
-    </r>
-  </si>
-  <si>
     <t>Если в регулярном выражении много скобочных групп, то удобно давать им имена.</t>
   </si>
   <si>
@@ -10654,17 +10422,540 @@
 alert( regexp.exec(str) ); // null</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\
+Важно! Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (возможно неправильно)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если нет флага g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать match</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\
+Важно! Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (возможно неправильно)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Если есть флаг g, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нужно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать matchAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене $1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\
+Важно! Не перепутайте: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в шаблоне \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при замене \k&lt;name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (возможно неправильно)</t>
+    </r>
+  </si>
+  <si>
+    <t>С использованием скобочных групп</t>
+  </si>
+  <si>
+    <t>Что входит в Alphabetic:
+1 Все буквы из категорий: \p{L} (Lu, Ll, Lt, Lm, Lo)
+2 Буквенные цифры \p{Nl} (Number, Letter)
+3 Другие буквенные символы \p{Other_Alphabetic} (OAlpha)
+4 Кириллические буквы: А-Я, а-я, Ё, ё</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Аналог \d{1,}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Означает «один или более». То же самое, что и {1,}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const regexGlobal = new RegExp("test", "g");
+const matches = "test test test".match(regexGlobal);
+console.log(matches); // ["test", "test", "test"]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11018,9 +11309,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11031,13 +11322,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11050,13 +11341,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -11068,13 +11359,13 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11083,7 +11374,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11092,64 +11383,73 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11176,13 +11476,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1322070</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>202091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4172248</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>840172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11220,13 +11520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2573655</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>586887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11622,10 +11922,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V245"/>
+  <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11633,7 +11933,7 @@
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
@@ -11718,7 +12018,9 @@
       <c r="C4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="47" t="s">
+        <v>412</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="12" t="s">
         <v>20</v>
@@ -11880,7 +12182,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>29</v>
@@ -12347,13 +12649,11 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="A27" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="2"/>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -12374,12 +12674,13 @@
       <c r="U27" s="2"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>88</v>
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="7"/>
@@ -12401,17 +12702,15 @@
       <c r="U28" s="2"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
@@ -12431,12 +12730,13 @@
       <c r="U29" s="2"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -12457,17 +12757,17 @@
       <c r="U30" s="2"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>88</v>
+    <row r="31" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
@@ -12487,16 +12787,12 @@
       <c r="U31" s="2"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
+    <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
@@ -12517,17 +12813,15 @@
       <c r="U32" s="2"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="11"/>
+    <row r="33" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="7"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
@@ -12547,19 +12841,13 @@
       <c r="U33" s="2"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="34" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
@@ -12579,12 +12867,15 @@
       <c r="U34" s="2"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>111</v>
+        <v>136</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="7"/>
@@ -12606,12 +12897,15 @@
       <c r="U35" s="2"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
-        <v>406</v>
+    <row r="36" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
@@ -12633,14 +12927,17 @@
       <c r="U36" s="2"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="7"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
@@ -12660,14 +12957,19 @@
       <c r="U37" s="2"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
-        <v>405</v>
+    <row r="38" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
@@ -12687,10 +12989,13 @@
       <c r="U38" s="2"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="7"/>
       <c r="F39" s="1"/>
@@ -12711,12 +13016,13 @@
       <c r="U39" s="2"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B40" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
@@ -12737,12 +13043,12 @@
       <c r="U40" s="2"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>87</v>
+        <v>400</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>401</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="7"/>
@@ -12764,11 +13070,12 @@
       <c r="U41" s="2"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="14" t="s">
-        <v>82</v>
+    <row r="42" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B42" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="7"/>
@@ -12790,209 +13097,210 @@
       <c r="U42" s="2"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>73</v>
-      </c>
+    <row r="43" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B48" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="2"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
@@ -13009,15 +13317,15 @@
       <c r="U55" s="2"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="1"/>
@@ -13036,16 +13344,12 @@
       <c r="U56" s="2"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>99</v>
-      </c>
+    <row r="57" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
@@ -13063,15 +13367,13 @@
       <c r="U57" s="2"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>101</v>
+    <row r="58" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="1"/>
@@ -13092,13 +13394,13 @@
     </row>
     <row r="59" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="1"/>
@@ -13117,14 +13419,16 @@
       <c r="U59" s="2"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="2"/>
+    <row r="60" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2"/>
@@ -13142,15 +13446,15 @@
       <c r="U60" s="2"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>68</v>
+    <row r="61" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="2"/>
       <c r="F61" s="1"/>
@@ -13169,13 +13473,15 @@
       <c r="U61" s="2"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="1"/>
@@ -13194,12 +13500,16 @@
       <c r="U62" s="2"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+    <row r="63" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
@@ -13217,17 +13527,13 @@
       <c r="U63" s="2"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="11"/>
+    <row r="64" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
@@ -13244,26 +13550,23 @@
       <c r="U64" s="2"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="2"/>
+    <row r="65" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="7"/>
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="7"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="7"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -13272,26 +13575,23 @@
       <c r="U65" s="2"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="2"/>
+    <row r="66" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="7"/>
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="7"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="7"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -13300,26 +13600,23 @@
       <c r="U66" s="2"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>83</v>
+    <row r="67" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>337</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="7"/>
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="7"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="7"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -13328,34 +13625,42 @@
       <c r="U67" s="2"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="U68" s="5"/>
-    </row>
-    <row r="69" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>131</v>
-      </c>
+    <row r="68" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="1"/>
@@ -13373,11 +13678,13 @@
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
@@ -13396,13 +13703,11 @@
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="A71" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
@@ -13420,13 +13725,17 @@
       <c r="U71" s="2"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+    <row r="72" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="11"/>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="1"/>
@@ -13443,23 +13752,26 @@
       <c r="U72" s="2"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>397</v>
-      </c>
+    <row r="73" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
+      <c r="E73" s="7"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
+      <c r="O73" s="7"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -13468,21 +13780,26 @@
       <c r="U73" s="2"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="2"/>
+    <row r="74" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
+      <c r="O74" s="7"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
@@ -13491,23 +13808,26 @@
       <c r="U74" s="2"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
-        <v>400</v>
+      <c r="B75" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D75" s="2"/>
+      <c r="E75" s="7"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
+      <c r="O75" s="7"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -13535,14 +13855,14 @@
       <c r="S76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
@@ -13560,1112 +13880,1243 @@
       <c r="U77" s="2"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C78" s="11" t="s">
+    <row r="78" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C86" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="11"/>
-    </row>
-    <row r="80" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
+    <row r="89" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="C83" s="11" t="s">
+    <row r="91" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="C91" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="21" t="s">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
+    <row r="93" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="U86" s="5"/>
-    </row>
-    <row r="87" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="1"/>
-      <c r="C87" s="20" t="s">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+      <c r="C95" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D95" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="96" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B96" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="97" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="98" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="99" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B99" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="100" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B100" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="101" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="102" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B102" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+    <row r="103" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B103" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="104" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="105" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    <row r="106" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C108" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C109" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="A103" s="23" t="s">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25" t="s">
+      <c r="B111" s="24"/>
+      <c r="C111" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C104" s="20" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C112" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C113" s="26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C114" s="26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="115" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C115" s="26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B108" s="9" t="s">
+    <row r="116" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C116" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B109" s="2" t="s">
+    <row r="117" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C117" s="26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="U110" s="5"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
-      <c r="C111" s="28" t="s">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="U118" s="5"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D119" s="26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B120" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="C113" s="26" t="s">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="C121" s="26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="29" t="s">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A122" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="26"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="21" t="s">
+      <c r="C122" s="26"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B116" s="2" t="s">
+    <row r="124" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C124" s="26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="21" t="s">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B118" s="2" t="s">
+    <row r="126" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C126" s="26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="21" t="s">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A127" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B120" s="2" t="s">
+    <row r="128" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C128" s="26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="21" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B122" s="2" t="s">
+    <row r="130" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C130" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B123" s="2" t="s">
+    <row r="131" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C131" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B124" s="2" t="s">
+    <row r="132" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C132" s="26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B126" s="2" t="s">
+    <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C134" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B127" s="2" t="s">
+    <row r="135" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C135" s="26" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
+    <row r="136" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C136" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="21" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="B130" s="2" t="s">
+    <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C138" s="26" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B131" s="2" t="s">
+    <row r="139" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C139" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B132" s="2" t="s">
+    <row r="140" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C140" s="26" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B134" s="2" t="s">
+    <row r="142" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C135" s="26" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C136" s="4" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C137" s="4" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C145" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C138" s="4" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C146" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="29" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="21" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B141" s="2" t="s">
+    <row r="149" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="21" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B143" s="2" t="s">
+    <row r="151" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C151" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D151" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="21" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B145" s="2" t="s">
+    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="21" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B147" s="2" t="s">
+    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B149" s="2" t="s">
+    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B157" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C157" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="21" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="21" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B151" s="2" t="s">
+    <row r="159" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A152" s="21" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B153" s="2" t="s">
+    <row r="161" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C161" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="21" t="s">
+    <row r="162" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D162" s="26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B155" s="26" t="s">
+    <row r="163" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C163" s="26" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B156" s="34" t="s">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B164" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="U158" s="5"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B159" s="1"/>
-      <c r="C159" s="30" t="s">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A166" s="3"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="U166" s="5"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D167" s="26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A160" s="31" t="s">
+    <row r="168" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A168" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B168" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C168" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A161" s="21" t="s">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C162" s="26" t="s">
+    <row r="170" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C170" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A163" s="21" t="s">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A171" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="C164" s="2" t="s">
+    <row r="172" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="C172" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="U165" s="5"/>
-    </row>
-    <row r="166" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B166" s="1"/>
-      <c r="C166" s="30" t="s">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173" s="3"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="U173" s="5"/>
+    </row>
+    <row r="174" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D174" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="21" t="s">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A175" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C168" s="26" t="s">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C176" s="26" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C169" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C170" s="26"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C171" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A176" s="21" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C177" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A178" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="26"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C179" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A180" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A184" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C185" s="26" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C178" s="26" t="s">
+    <row r="186" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C186" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="U179" s="5"/>
-    </row>
-    <row r="180" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B180" s="1"/>
-      <c r="C180" s="30" t="s">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A187" s="3"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="U187" s="5"/>
+    </row>
+    <row r="188" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="D180" s="26" t="s">
+      <c r="D188" s="26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B182" s="2" t="s">
+    <row r="190" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C190" s="26" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C183" s="26" t="s">
+    <row r="191" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C191" s="26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B184" s="2" t="s">
+    <row r="192" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C192" s="26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="U185" s="5"/>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B186" s="1"/>
-      <c r="C186" s="30" t="s">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A193" s="3"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
+      <c r="U193" s="5"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+      <c r="C194" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D186" s="26" t="s">
+      <c r="D194" s="26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A187" s="21" t="s">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A195" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="26"/>
-    </row>
-    <row r="188" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C188" s="26" t="s">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="26"/>
+    </row>
+    <row r="196" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C196" s="26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C189" s="35" t="s">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C197" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C190" s="26" t="s">
+    <row r="198" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C198" s="26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B191" s="2" t="s">
+    <row r="199" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B199" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C191" s="26" t="s">
+      <c r="C199" s="26" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A192" s="21" t="s">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A200" s="21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="26" t="s">
+    <row r="201" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C201" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="D201" s="26" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+    <row r="202" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B202" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C194" s="26" t="s">
+      <c r="C202" s="26" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="21" t="s">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A203" s="21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C196" s="26" t="s">
+    <row r="204" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C204" s="26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="36" t="s">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A205" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C197" s="26"/>
-    </row>
-    <row r="198" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B198" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C198" s="26" t="s">
+      <c r="C205" s="26"/>
+    </row>
+    <row r="206" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B206" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C206" s="26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="28" t="s">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A207" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B199" s="37"/>
-      <c r="C199" s="26"/>
-    </row>
-    <row r="200" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B200" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C200" s="26" t="s">
+      <c r="B207" s="37"/>
+      <c r="C207" s="26"/>
+    </row>
+    <row r="208" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B208" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C208" s="26" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="36" t="s">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A209" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B202" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="C202" s="26" t="s">
+    <row r="210" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B210" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C210" s="26" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B203" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C203" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B204" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C204" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C206" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="C207" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B209" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="B210" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C211" s="37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="U212" s="5"/>
-    </row>
-    <row r="213" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B213" s="1"/>
-      <c r="C213" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="D213" s="37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A214" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B215" s="1"/>
-      <c r="C215" s="37" t="s">
-        <v>357</v>
+        <v>339</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A213" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C214" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+      <c r="C215" s="26" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C216" s="37"/>
-    </row>
-    <row r="217" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C217" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A218" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B217" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B219" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="C219" s="37" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
@@ -14690,171 +15141,231 @@
     <row r="221" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A222" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B223" s="1"/>
+      <c r="C223" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A224" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C224" s="37"/>
+    </row>
+    <row r="225" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C225" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A226" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C227" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A228" s="3"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="5"/>
+      <c r="U228" s="5"/>
+    </row>
+    <row r="229" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B229" s="1"/>
+      <c r="C229" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D229" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A230" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B231" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A232" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C233" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="D221" s="37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A222" s="41" t="s">
+    </row>
+    <row r="234" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C234" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B236" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A237" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C238" s="37" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B223" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="C223" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A224" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C225" s="37" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C226" s="37" t="s">
+    <row r="239" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C239" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D240" s="37" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B228" s="39" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C241" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C242" s="37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B244" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C244" s="37"/>
+      <c r="D244" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="C228" s="37" t="s">
+    </row>
+    <row r="245" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B245" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B246" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B247" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C247" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B248" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C248" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B251" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="41" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C230" s="37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C231" s="37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="D232" s="37" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B233" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="C233" s="40" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C234" s="37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B236" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="C236" s="37"/>
-      <c r="D236" s="37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B237" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="C237" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B238" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="C238" s="37" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B239" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="C239" s="37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B240" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C240" s="37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="21" t="s">
+    <row r="253" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B253" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C253" s="37" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C242" s="37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B243" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C243" s="37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="41" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B245" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>391</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15116,7 +15627,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>29</v>
@@ -15233,10 +15744,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15625,13 +16136,11 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="A14" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
@@ -15652,12 +16161,13 @@
       <c r="U14" s="2"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>88</v>
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
@@ -15679,17 +16189,15 @@
       <c r="U15" s="2"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
@@ -15709,12 +16217,13 @@
       <c r="U16" s="2"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
@@ -15735,17 +16244,17 @@
       <c r="U17" s="2"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>88</v>
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -15765,16 +16274,12 @@
       <c r="U18" s="2"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>110</v>
-      </c>
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
@@ -15795,17 +16300,15 @@
       <c r="U19" s="2"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="11"/>
+    <row r="20" spans="1:22" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
@@ -15825,19 +16328,13 @@
       <c r="U20" s="2"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="7"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
@@ -15857,12 +16354,15 @@
       <c r="U21" s="2"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>111</v>
+        <v>136</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="7"/>
@@ -15884,12 +16384,15 @@
       <c r="U22" s="2"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
-        <v>406</v>
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="7"/>
@@ -15911,14 +16414,17 @@
       <c r="U23" s="2"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="D24" s="2"/>
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="7"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
@@ -15938,14 +16444,19 @@
       <c r="U24" s="2"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
-        <v>405</v>
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
@@ -15965,10 +16476,13 @@
       <c r="U25" s="2"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:22" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -15989,12 +16503,13 @@
       <c r="U26" s="2"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B27" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -16015,12 +16530,12 @@
       <c r="U27" s="2"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>87</v>
+        <v>400</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>401</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="7"/>
@@ -16042,11 +16557,12 @@
       <c r="U28" s="2"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="14" t="s">
-        <v>82</v>
+    <row r="29" spans="1:22" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="B29" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="7"/>
@@ -16068,182 +16584,186 @@
       <c r="U29" s="2"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="41" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
@@ -16260,15 +16780,15 @@
       <c r="U41" s="2"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="1"/>
@@ -16287,16 +16807,12 @@
       <c r="U42" s="2"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>93</v>
-      </c>
+    <row r="43" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
@@ -16314,15 +16830,13 @@
       <c r="U43" s="2"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>100</v>
+    <row r="44" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="1"/>
@@ -16341,15 +16855,15 @@
       <c r="U44" s="2"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="1"/>
@@ -16368,15 +16882,15 @@
       <c r="U45" s="2"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="1"/>
@@ -16395,14 +16909,16 @@
       <c r="U46" s="2"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
@@ -16420,15 +16936,15 @@
       <c r="U47" s="2"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>90</v>
+    <row r="48" spans="1:22" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="1"/>
@@ -16447,13 +16963,15 @@
       <c r="U48" s="2"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="1"/>
@@ -16472,12 +16990,12 @@
       <c r="U49" s="2"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>120</v>
+    <row r="50" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
@@ -16495,17 +17013,15 @@
       <c r="U50" s="2"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="11"/>
+    <row r="51" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
@@ -16522,26 +17038,23 @@
       <c r="U51" s="2"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="2"/>
+    <row r="52" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="7"/>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="7"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="7"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -16550,26 +17063,23 @@
       <c r="U52" s="2"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="2"/>
+    <row r="53" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>337</v>
+      </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="7"/>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="7"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="7"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -16578,26 +17088,23 @@
       <c r="U53" s="2"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="B54" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="7"/>
       <c r="F54" s="1"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="7"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="7"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -16605,6 +17112,192 @@
       <c r="T54" s="8"/>
       <c r="U54" s="2"/>
       <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16619,8 +17312,8 @@
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16724,10 +17417,10 @@
     <row r="4" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="1"/>
@@ -16772,10 +17465,10 @@
     <row r="6" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="1"/>
@@ -16820,7 +17513,7 @@
     <row r="8" spans="1:22" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>135</v>
@@ -16982,6 +17675,9 @@
       <c r="A22" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>157</v>
       </c>
@@ -16994,7 +17690,7 @@
         <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>160</v>
@@ -17216,8 +17912,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17972,7 +18668,7 @@
         <v>255</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>254</v>
+        <v>410</v>
       </c>
       <c r="D31" s="4"/>
       <c r="F31" s="1"/>
@@ -18147,10 +18843,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18522,8 +19218,8 @@
     </row>
     <row r="34" spans="1:22" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="37" t="s">
-        <v>351</v>
+      <c r="B34" s="45" t="s">
+        <v>406</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>331</v>
@@ -18549,7 +19245,7 @@
       <c r="A35" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="26"/>
       <c r="D35" s="4"/>
       <c r="F35" s="1"/>
@@ -18570,8 +19266,8 @@
     </row>
     <row r="36" spans="1:22" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="37" t="s">
-        <v>350</v>
+      <c r="B36" s="45" t="s">
+        <v>407</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>334</v>
@@ -18618,8 +19314,8 @@
     </row>
     <row r="38" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="37" t="s">
-        <v>349</v>
+      <c r="B38" s="45" t="s">
+        <v>408</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>335</v>
@@ -18798,7 +19494,7 @@
       <c r="B46" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="45" t="s">
         <v>344</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -18807,10 +19503,10 @@
     </row>
     <row r="47" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -18832,605 +19528,46 @@
       <c r="S48" s="5"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C52" s="37"/>
     </row>
-    <row r="53" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C55" s="37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="U56" s="5"/>
-    </row>
-    <row r="57" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="1"/>
-    </row>
-    <row r="68" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="1"/>
-    </row>
-    <row r="69" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="1"/>
-    </row>
-    <row r="71" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="1"/>
-    </row>
-    <row r="73" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="1"/>
-    </row>
-    <row r="75" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="1"/>
-    </row>
-    <row r="76" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="1"/>
-    </row>
-    <row r="79" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="1"/>
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19447,7 +19584,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19503,23 +19640,23 @@
     <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -19531,7 +19668,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="1"/>
@@ -19554,7 +19691,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="1"/>
@@ -19575,7 +19712,7 @@
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -19599,10 +19736,10 @@
     <row r="9" spans="1:22" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="1"/>
@@ -19648,7 +19785,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="4"/>
       <c r="F11" s="1"/>
@@ -19671,7 +19808,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="1"/>
@@ -19692,12 +19829,12 @@
     </row>
     <row r="13" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -19718,10 +19855,10 @@
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="1"/>
@@ -19744,7 +19881,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="1"/>
@@ -19765,7 +19902,7 @@
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -19789,11 +19926,11 @@
     <row r="17" spans="1:22" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -19814,10 +19951,10 @@
     <row r="18" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="1"/>
@@ -19839,10 +19976,10 @@
     <row r="19" spans="1:22" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="1"/>
@@ -19864,10 +20001,10 @@
     <row r="20" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="39" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="1"/>
@@ -19889,10 +20026,10 @@
     <row r="21" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="1"/>
@@ -19913,7 +20050,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B22" s="2"/>
       <c r="E22" s="7"/>
@@ -19937,11 +20074,11 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="1"/>
@@ -19965,10 +20102,10 @@
     <row r="24" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="1"/>
@@ -19991,7 +20128,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B25" s="2"/>
       <c r="E25" s="7"/>
@@ -20016,10 +20153,10 @@
     <row r="26" spans="1:22" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>

--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B927ABA-4946-46D3-AAA9-844261CB42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A002EA5-E098-4777-81B8-16AF926F3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="-18840" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regexp" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="414">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
@@ -10929,17 +10929,28 @@
 console.log(matches); // ["test", "test", "test"]</t>
     </r>
   </si>
+  <si>
+    <t>Обязательно должен быть флаг u</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11309,9 +11320,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11322,13 +11333,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11341,13 +11352,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -11359,13 +11370,13 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11374,7 +11385,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11383,7 +11394,40 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11392,65 +11436,35 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11924,7 +11938,7 @@
   </sheetPr>
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11983,7 +11997,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12162,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -12313,7 +12327,7 @@
       <c r="S14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="20" t="s">
@@ -14043,7 +14057,7 @@
       <c r="S84" s="5"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:22" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="20" t="s">
@@ -14160,7 +14174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>156</v>
       </c>
@@ -14174,7 +14188,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>159</v>
       </c>
@@ -14188,7 +14202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
@@ -14241,7 +14255,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
@@ -14266,7 +14280,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>179</v>
       </c>
@@ -14325,7 +14339,7 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>193</v>
       </c>
@@ -14618,7 +14632,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>257</v>
       </c>
@@ -15097,7 +15111,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A218" s="37" t="s">
         <v>349</v>
       </c>
@@ -15138,7 +15152,7 @@
       <c r="S220" s="5"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="30" t="s">
         <v>354</v>
@@ -15289,7 +15303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B244" s="43" t="s">
         <v>375</v>
       </c>
@@ -15365,7 +15379,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15746,8 +15760,8 @@
   </sheetPr>
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17312,7 +17326,7 @@
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -17912,8 +17926,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17948,7 +17962,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+      <c r="B1" s="48" t="s">
+        <v>413</v>
+      </c>
       <c r="C1" s="44" t="s">
         <v>249</v>
       </c>
@@ -18846,7 +18862,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4 четверть_15_JavaScript_Regexp.xlsx
+++ b/4 четверть_15_JavaScript_Regexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A002EA5-E098-4777-81B8-16AF926F3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96113522-F310-40F2-9B04-40364E166422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-18840" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regexp" sheetId="20" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="EXTRA способ поиска" sheetId="23" r:id="rId5"/>
     <sheet name="Скобочные группы" sheetId="25" r:id="rId6"/>
     <sheet name="Опережающие и ретроспективные" sheetId="26" r:id="rId7"/>
+    <sheet name="Доп библиотеки" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="417">
   <si>
     <t>`https://learn.javascript.ru/regular-expressions</t>
   </si>
@@ -10931,6 +10932,15 @@
   </si>
   <si>
     <t>Обязательно должен быть флаг u</t>
+  </si>
+  <si>
+    <t>import ipRegex from 'ip-regex';</t>
+  </si>
+  <si>
+    <t>ipRegex</t>
+  </si>
+  <si>
+    <t>Доп библиотеки</t>
   </si>
 </sst>
 </file>
@@ -11322,7 +11332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11465,6 +11475,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11938,8 +11954,8 @@
   </sheetPr>
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17926,8 +17942,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20197,4 +20213,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB089452-234A-4AC3-8938-1B091228F379}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C2" s="50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>